--- a/data/trans_dic/P31_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,21 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +552,29 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Mujer</t>
         </is>
       </c>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +682,15 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>33,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,84%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>38,09%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34,6%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>30,81%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26,4%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>31,91%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>31,63%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28,83%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
         </is>
       </c>
     </row>
@@ -685,47 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,92; 41,44</t>
+          <t>26,19; 41,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 32,32</t>
+          <t>19,19; 35,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,29; 44,73</t>
+          <t>28,19; 47,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,82; 37,23</t>
+          <t>17,66; 36,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 46,55</t>
+          <t>19,21; 37,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,77; 39,45</t>
+          <t>15,53; 33,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,06; 36,68</t>
+          <t>23,19; 38,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,24; 37,05</t>
+          <t>29,98; 45,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,45; 39,56</t>
+          <t>26,4; 41,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>26,37; 42,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23,04; 40,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 33,66</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>26,56; 37,87</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>26,21; 36,86</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>30,06; 42,26</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>24,7; 37,17</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 35,76</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19,08; 31,08</t>
         </is>
       </c>
     </row>
@@ -742,47 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,91%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>37,7%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>35,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>29,34%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33,18%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>39,65%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>35,41%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>27,54%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
         </is>
       </c>
     </row>
@@ -795,47 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,57; 48,12</t>
+          <t>27,97; 48,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,74; 46,05</t>
+          <t>30,55; 47,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,64; 43,65</t>
+          <t>25,12; 45,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,84; 33,24</t>
+          <t>16,17; 32,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,16; 47,97</t>
+          <t>18,09; 35,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 44,41</t>
+          <t>18,88; 35,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,55; 39,23</t>
+          <t>19,38; 32,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,37; 44,55</t>
+          <t>35,17; 47,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,85; 41,77</t>
+          <t>31,46; 43,88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,64; 43,61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>23,03; 36,87</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26,04; 40,21</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 38,93</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34,41; 44,96</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>29,88; 42,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>23,92; 35,17</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>22,62; 33,99</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 36,34</t>
         </is>
       </c>
     </row>
@@ -852,47 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,05%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>41,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>35,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,94%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>46,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43,35%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39,98%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>37,03%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>38,77%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>40,32%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>40,18%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>37,04%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>30,13%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,48; 55,24</t>
+          <t>33,81; 50,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,05; 40,21</t>
+          <t>28,03; 40,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,83; 50,06</t>
+          <t>34,98; 49,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,38; 41,84</t>
+          <t>27,74; 43,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,96; 51,19</t>
+          <t>27,4; 41,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,83; 44,06</t>
+          <t>18,2; 32,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>35,43; 45,83</t>
+          <t>30,81; 42,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,07; 44,43</t>
+          <t>41,12; 51,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>35,94; 44,84</t>
+          <t>33,44; 43,36</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>37,69; 49,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>32,99; 46,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>30,54; 43,64</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>33,87; 43,86</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>36,02; 44,62</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>35,87; 44,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>34,92; 44,22</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>32,53; 41,93</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 35,43</t>
         </is>
       </c>
     </row>
@@ -962,47 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>32,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,23%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>27,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,13%</t>
+          <t>31,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,16%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>35,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27,93%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>36,21%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>37,22%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33,79%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>33,5%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,31; 32,62</t>
+          <t>20,81; 33,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,85; 39,93</t>
+          <t>27,47; 38,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,48; 45,53</t>
+          <t>33,14; 45,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,16; 36,31</t>
+          <t>21,42; 32,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 44,51</t>
+          <t>24,4; 37,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 40,3</t>
+          <t>25,72; 38,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,13; 32,27</t>
+          <t>24,76; 34,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,22; 41,03</t>
+          <t>34,38; 44,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,26; 41,13</t>
+          <t>30,7; 40,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>34,63; 45,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 44,61</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>29,12; 41,92</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,33; 32,07</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>32,65; 40,04</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>33,45; 41,17</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>29,46; 37,75</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>29,54; 38,57</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 37,95</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>37,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,47%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,29%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>38,46%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25,62%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>31,69%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>28,15%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>37,17%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,9; 25,92</t>
+          <t>14,22; 24,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,17; 35,98</t>
+          <t>23,41; 34,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,84; 31,52</t>
+          <t>20,54; 31,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,16; 37,77</t>
+          <t>17,3; 28,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 41,97</t>
+          <t>26,54; 41,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,25; 43,58</t>
+          <t>28,98; 42,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,44; 29,77</t>
+          <t>25,15; 37,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,47; 36,67</t>
+          <t>29,73; 41,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>27,6; 35,74</t>
+          <t>30,86; 43,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>26,54; 41,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29,0; 41,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,13; 45,26</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>21,86; 30,36</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>28,46; 35,91</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>27,3; 35,84</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>23,45; 33,08</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>30,15; 39,38</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>31,92; 42,32</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>37,35%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>48,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>40,82%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>41,78%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44,61%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>42,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>42,89%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>34,12%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>33,44%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>37,89%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>35,1%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,25; 43,31</t>
+          <t>24,52; 42,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,82; 47,01</t>
+          <t>28,75; 44,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,29; 33,25</t>
+          <t>18,63; 33,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,02; 54,89</t>
+          <t>16,53; 31,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,31; 54,88</t>
+          <t>21,6; 37,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,78; 46,21</t>
+          <t>17,1; 31,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,71; 47,14</t>
+          <t>42,12; 55,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,71; 48,95</t>
+          <t>41,46; 54,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,3; 38,59</t>
+          <t>33,84; 47,84</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>33,45; 50,96</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35,16; 54,5</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>34,87; 51,42</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>36,75; 47,86</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>37,82; 48,22</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>29,03; 39,41</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>27,93; 39,82</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>31,62; 44,27</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>29,37; 41,25</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,8%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,6%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>37,38%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,84%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>37,03%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>36,22%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>33,45%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>37,42%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>36,0%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>33,01%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>33,71%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>31,88%</t>
         </is>
       </c>
     </row>
@@ -1345,63 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>29,4; 36,93</t>
+          <t>28,6; 35,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,43; 36,38</t>
+          <t>30,05; 35,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,05; 37,21</t>
+          <t>31,2; 37,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,49; 36,94</t>
+          <t>23,99; 30,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,29; 44,38</t>
+          <t>27,15; 33,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,31; 39,5</t>
+          <t>24,62; 30,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,36; 35,86</t>
+          <t>32,03; 37,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,62; 39,42</t>
+          <t>39,45; 44,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>33,65; 37,59</t>
+          <t>35,03; 40,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36,12; 41,95</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33,58; 40,16</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>33,07; 39,26</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>31,54; 35,69</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>35,6; 39,46</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>33,94; 37,9</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>30,94; 35,08</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>31,48; 36,04</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>29,81; 34,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que camina &gt; 30 min &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,52%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>169263</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>137344</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>195431</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>118617</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11396</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9396</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>140495</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>190363</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>172159</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>161632</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11427</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10096</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>309758</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>327706</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>367590</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>280249</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>22823</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>19492</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>131487; 208877</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>100011; 183434</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>143792; 244678</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>78852; 163916</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8083; 15856</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6406; 13685</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>108725; 178766</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>154378; 233297</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>135681; 213239</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>123183; 199108</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8546; 15065</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7313; 12870</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>257881; 367669</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>271551; 381928</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>307804; 432727</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>225632; 339605</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>17948; 28311</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15167; 24710</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>214716</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>213063</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>198679</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>141242</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12668</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11873</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>133246</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>212537</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>195017</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>173339</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13658</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>14944</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>347961</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>425600</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>393696</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>314582</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>26326</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>26816</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>159533; 277344</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>172757; 266411</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>149305; 268320</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>92523; 188575</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8868; 17185</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8608; 16162</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100082; 167077</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>178669; 243496</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>162770; 227004</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>139228; 212047</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10721; 17168</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11730; 18110</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>288419; 423031</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>369399; 482649</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>332236; 467206</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>253196; 372174</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>21623; 32493</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>22101; 32933</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>279852</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>231008</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>284973</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>235483</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20738</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14512</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>259167</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>328231</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>274338</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>308194</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21359</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>19796</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>539019</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>559240</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>559311</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>543678</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>42097</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>34308</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>229160; 341269</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>190827; 275522</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>237865; 338483</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>185355; 287630</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16495; 24939</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10999; 19632</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>219542; 300173</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>290401; 363774</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>238024; 308628</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>267889; 350288</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17629; 24583</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>16325; 23328</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>470885; 609713</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>499583; 618851</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>499315; 614788</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>481474; 609796</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>36967; 47655</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>29323; 40347</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>170281</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>212312</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>250280</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>174397</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>18074</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>17735</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>199436</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>264735</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>231931</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>261819</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>19686</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18354</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>369718</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>477047</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>482211</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>436216</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>37760</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>36089</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>134680; 219651</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>176911; 245835</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>211755; 290957</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>137176; 209944</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14215; 22112</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14343; 21454</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>167422; 233930</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>231505; 302297</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>201552; 264798</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>225217; 297300</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16518; 23304</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>15136; 21789</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>321983; 424495</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>430100; 527463</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>433400; 533433</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>380309; 487286</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>32650; 42625</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>31114; 40890</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>95860</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>144951</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>127519</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>110048</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14964</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15615</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>159614</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>173431</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>191539</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>166805</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17047</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17736</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>255474</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>318382</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>319057</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>276853</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>32011</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>33351</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>70081; 122263</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>117557; 174533</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>101374; 154462</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83909; 140364</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>11735; 18153</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12633; 18649</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>126880; 189470</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>147139; 205899</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>158402; 220741</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>132253; 205233</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14011; 20000</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14818; 20874</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>217946; 302707</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>283804; 358080</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>274861; 360848</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>230625; 325342</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>27896; 36441</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>28640; 37972</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>176490</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>187448</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>135357</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>129170</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>13470</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>11083</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>351559</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>331374</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>281766</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>295861</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28424</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>26483</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>528049</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>518822</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>417123</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>425031</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>41894</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>37565</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>133700; 229416</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>149435; 233577</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>99183; 176283</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>93091; 175633</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>10116; 17535</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>7756; 14503</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>299666; 397660</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>285984; 376369</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>233593; 330203</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>236824; 360803</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22404; 34727</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>21507; 31719</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>461826; 601529</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>457463; 583266</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>354925; 481819</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>354998; 506087</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>34959; 48950</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>31438; 44155</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>443.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>681.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>613.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>394.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>787.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1124.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1052.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>784.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>680.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>637.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1106462</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1126126</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1192240</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>908958</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>91311</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>80214</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1243516</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1500671</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1346749</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1367650</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>111602</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>107408</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2349979</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2626797</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2538989</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2276608</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>202913</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>187622</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>982413; 1221648</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1031714; 1228221</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1076304; 1295971</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>809565; 1024007</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>81618; 100929</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>71887; 89207</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1149929; 1339161</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1415046; 1588613</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1262193; 1444787</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1271829; 1477015</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>101203; 121010</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>98048; 116411</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2216104; 2507028</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2499368; 2769946</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2393752; 2673216</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>2133393; 2418955</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>189503; 216943</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>175414; 200441</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
